--- a/newformat_data/05_Maio_-_Itamar.xlsx
+++ b/newformat_data/05_Maio_-_Itamar.xlsx
@@ -2068,9 +2068,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>728640</xdr:colOff>
+      <xdr:colOff>728280</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>36000</xdr:rowOff>
+      <xdr:rowOff>35640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2084,7 +2084,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="85680" y="76320"/>
-          <a:ext cx="1455480" cy="1293120"/>
+          <a:ext cx="1455120" cy="1292760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2110,9 +2110,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>728280</xdr:colOff>
+      <xdr:colOff>727920</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>36000</xdr:rowOff>
+      <xdr:rowOff>35640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2126,7 +2126,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="85680" y="76320"/>
-          <a:ext cx="1455120" cy="1293120"/>
+          <a:ext cx="1454760" cy="1292760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2152,9 +2152,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>728280</xdr:colOff>
+      <xdr:colOff>727920</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>36000</xdr:rowOff>
+      <xdr:rowOff>35640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2168,7 +2168,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="85680" y="76320"/>
-          <a:ext cx="1455120" cy="1293120"/>
+          <a:ext cx="1454760" cy="1292760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2194,9 +2194,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>728280</xdr:colOff>
+      <xdr:colOff>727920</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>36000</xdr:rowOff>
+      <xdr:rowOff>35640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2210,7 +2210,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="85680" y="76320"/>
-          <a:ext cx="1455120" cy="1293120"/>
+          <a:ext cx="1454760" cy="1292760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2236,9 +2236,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>728280</xdr:colOff>
+      <xdr:colOff>727920</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>36000</xdr:rowOff>
+      <xdr:rowOff>35640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2252,7 +2252,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="85680" y="76320"/>
-          <a:ext cx="1455120" cy="1293120"/>
+          <a:ext cx="1454760" cy="1292760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2278,9 +2278,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>728280</xdr:colOff>
+      <xdr:colOff>727920</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>36000</xdr:rowOff>
+      <xdr:rowOff>35640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2294,7 +2294,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="85680" y="76320"/>
-          <a:ext cx="1455120" cy="1293120"/>
+          <a:ext cx="1454760" cy="1292760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2320,9 +2320,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>728280</xdr:colOff>
+      <xdr:colOff>727920</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>36000</xdr:rowOff>
+      <xdr:rowOff>35640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2336,7 +2336,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="85680" y="76320"/>
-          <a:ext cx="1455120" cy="1293120"/>
+          <a:ext cx="1454760" cy="1292760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2362,9 +2362,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>728280</xdr:colOff>
+      <xdr:colOff>727920</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>36000</xdr:rowOff>
+      <xdr:rowOff>35640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2378,7 +2378,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="85680" y="76320"/>
-          <a:ext cx="1455120" cy="1293120"/>
+          <a:ext cx="1454760" cy="1292760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2401,7 +2401,7 @@
   <dimension ref="A1:Y20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K15" activeCellId="0" sqref="K15"/>
+      <selection pane="topLeft" activeCell="G9" activeCellId="0" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/newformat_data/05_Maio_-_Itamar.xlsx
+++ b/newformat_data/05_Maio_-_Itamar.xlsx
@@ -2068,9 +2068,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>728280</xdr:colOff>
+      <xdr:colOff>727560</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>35640</xdr:rowOff>
+      <xdr:rowOff>34920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2084,7 +2084,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="85680" y="76320"/>
-          <a:ext cx="1455120" cy="1292760"/>
+          <a:ext cx="1454400" cy="1292040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2110,9 +2110,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>727920</xdr:colOff>
+      <xdr:colOff>727200</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>35640</xdr:rowOff>
+      <xdr:rowOff>34920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2126,7 +2126,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="85680" y="76320"/>
-          <a:ext cx="1454760" cy="1292760"/>
+          <a:ext cx="1454040" cy="1292040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2152,9 +2152,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>727920</xdr:colOff>
+      <xdr:colOff>727200</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>35640</xdr:rowOff>
+      <xdr:rowOff>34920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2168,7 +2168,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="85680" y="76320"/>
-          <a:ext cx="1454760" cy="1292760"/>
+          <a:ext cx="1454040" cy="1292040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2194,9 +2194,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>727920</xdr:colOff>
+      <xdr:colOff>727200</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>35640</xdr:rowOff>
+      <xdr:rowOff>34920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2210,7 +2210,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="85680" y="76320"/>
-          <a:ext cx="1454760" cy="1292760"/>
+          <a:ext cx="1454040" cy="1292040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2236,9 +2236,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>727920</xdr:colOff>
+      <xdr:colOff>727200</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>35640</xdr:rowOff>
+      <xdr:rowOff>34920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2252,7 +2252,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="85680" y="76320"/>
-          <a:ext cx="1454760" cy="1292760"/>
+          <a:ext cx="1454040" cy="1292040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2278,9 +2278,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>727920</xdr:colOff>
+      <xdr:colOff>727200</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>35640</xdr:rowOff>
+      <xdr:rowOff>34920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2294,7 +2294,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="85680" y="76320"/>
-          <a:ext cx="1454760" cy="1292760"/>
+          <a:ext cx="1454040" cy="1292040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2320,9 +2320,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>727920</xdr:colOff>
+      <xdr:colOff>727200</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>35640</xdr:rowOff>
+      <xdr:rowOff>34920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2336,7 +2336,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="85680" y="76320"/>
-          <a:ext cx="1454760" cy="1292760"/>
+          <a:ext cx="1454040" cy="1292040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2362,9 +2362,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>727920</xdr:colOff>
+      <xdr:colOff>727200</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>35640</xdr:rowOff>
+      <xdr:rowOff>34920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2378,7 +2378,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="85680" y="76320"/>
-          <a:ext cx="1454760" cy="1292760"/>
+          <a:ext cx="1454040" cy="1292040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2400,8 +2400,8 @@
   </sheetPr>
   <dimension ref="A1:Y20"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G9" activeCellId="0" sqref="G9"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K15" activeCellId="0" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2463,7 +2463,7 @@
       <c r="H2" s="2"/>
       <c r="I2" s="4" t="n">
         <f aca="false">SUM(L8:L17)</f>
-        <v>0.0837811388848625</v>
+        <v>0.116481216686718</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>1</v>
@@ -2532,13 +2532,13 @@
       </c>
       <c r="F4" s="11" t="n">
         <f aca="false">(E4*I2)+E4+(D4-E4)</f>
-        <v>108378.113888486</v>
+        <v>111648.121668672</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="12" t="n">
         <f aca="false">F4/D4-1</f>
-        <v>0.0837811388848624</v>
+        <v>0.116481216686718</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>1</v>
@@ -2693,15 +2693,15 @@
         <v>0.1</v>
       </c>
       <c r="K8" s="19" t="n">
-        <v>54.81</v>
+        <v>54.86</v>
       </c>
       <c r="L8" s="24" t="n">
         <f aca="false">IFERROR((K8/F8-1)*J8,0)</f>
-        <v>0.00451945080091534</v>
+        <v>0.00461479786422578</v>
       </c>
       <c r="M8" s="25" t="n">
         <f aca="false">IFERROR(L8/J8,0)</f>
-        <v>0.0451945080091534</v>
+        <v>0.0461479786422578</v>
       </c>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
@@ -2747,15 +2747,15 @@
         <v>0.1</v>
       </c>
       <c r="K9" s="19" t="n">
-        <v>3.89</v>
+        <v>4.03</v>
       </c>
       <c r="L9" s="24" t="n">
         <f aca="false">IFERROR((K9/F9-1)*J9,0)</f>
-        <v>0.00628415300546448</v>
+        <v>0.0101092896174863</v>
       </c>
       <c r="M9" s="25" t="n">
         <f aca="false">IFERROR(L9/J9,0)</f>
-        <v>0.0628415300546448</v>
+        <v>0.101092896174863</v>
       </c>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
@@ -2801,15 +2801,15 @@
         <v>0.3</v>
       </c>
       <c r="K10" s="19" t="n">
-        <v>19.71</v>
+        <v>20.34</v>
       </c>
       <c r="L10" s="24" t="n">
         <f aca="false">IFERROR((K10/F10-1)*J10,0)</f>
-        <v>0.0145212765957447</v>
+        <v>0.0245744680851064</v>
       </c>
       <c r="M10" s="25" t="n">
         <f aca="false">IFERROR(L10/J10,0)</f>
-        <v>0.0484042553191491</v>
+        <v>0.0819148936170213</v>
       </c>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
@@ -2855,15 +2855,15 @@
         <v>0.08</v>
       </c>
       <c r="K11" s="19" t="n">
-        <v>2.68</v>
+        <v>2.64</v>
       </c>
       <c r="L11" s="24" t="n">
         <f aca="false">IFERROR((K11/F11-1)*J11,0)</f>
-        <v>-0.00503496503496502</v>
+        <v>-0.00615384615384615</v>
       </c>
       <c r="M11" s="25" t="n">
         <f aca="false">IFERROR(L11/J11,0)</f>
-        <v>-0.0629370629370628</v>
+        <v>-0.0769230769230769</v>
       </c>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
@@ -2909,15 +2909,15 @@
         <v>0.2</v>
       </c>
       <c r="K12" s="19" t="n">
-        <v>64.48</v>
+        <v>64.35</v>
       </c>
       <c r="L12" s="24" t="n">
         <f aca="false">IFERROR((K12/F12-1)*J12,0)</f>
-        <v>0.059476861167002</v>
+        <v>0.058953722334004</v>
       </c>
       <c r="M12" s="25" t="n">
         <f aca="false">IFERROR(L12/J12,0)</f>
-        <v>0.29738430583501</v>
+        <v>0.29476861167002</v>
       </c>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
@@ -2963,15 +2963,15 @@
         <v>0.14</v>
       </c>
       <c r="K13" s="19" t="n">
-        <v>40.42</v>
+        <v>41.83</v>
       </c>
       <c r="L13" s="24" t="n">
         <f aca="false">IFERROR((K13/F13-1)*J13,0)</f>
-        <v>0.00168252378567854</v>
+        <v>0.00662493740610918</v>
       </c>
       <c r="M13" s="25" t="n">
         <f aca="false">IFERROR(L13/J13,0)</f>
-        <v>0.012018027040561</v>
+        <v>0.0473209814722084</v>
       </c>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
@@ -3017,15 +3017,15 @@
         <v>0.08</v>
       </c>
       <c r="K14" s="28" t="n">
-        <v>9.18</v>
+        <v>10.9</v>
       </c>
       <c r="L14" s="24" t="n">
         <f aca="false">IFERROR((K14/F14-1)*J14,0)</f>
-        <v>0.00233183856502242</v>
+        <v>0.0177578475336323</v>
       </c>
       <c r="M14" s="25" t="n">
         <f aca="false">IFERROR(L14/J14,0)</f>
-        <v>0.0291479820627802</v>
+        <v>0.221973094170404</v>
       </c>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
@@ -3195,11 +3195,11 @@
       <c r="J18" s="30"/>
       <c r="K18" s="32" t="n">
         <f aca="false">F4</f>
-        <v>108378.113888486</v>
+        <v>111648.121668672</v>
       </c>
       <c r="L18" s="33" t="n">
         <f aca="false">(K18/F18-1)</f>
-        <v>0.0837811388848624</v>
+        <v>0.116481216686718</v>
       </c>
       <c r="M18" s="33"/>
       <c r="N18" s="1" t="s">
@@ -4406,7 +4406,7 @@
       <c r="C4" s="2"/>
       <c r="D4" s="9" t="n">
         <f aca="false">Maio!F4</f>
-        <v>108378.113888486</v>
+        <v>111648.121668672</v>
       </c>
       <c r="E4" s="10" t="n">
         <f aca="false">IF(SUM(I8:I17)&lt;=D4,SUM(I8:I17),"VALOR ACIMA DO DISPONÍVEL")</f>
@@ -4414,13 +4414,13 @@
       </c>
       <c r="F4" s="11" t="n">
         <f aca="false">(E4*I2)+E4+(D4-E4)</f>
-        <v>113038.543888486</v>
+        <v>116308.551668672</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="12" t="n">
         <f aca="false">F4/100000-1</f>
-        <v>0.130385438884862</v>
+        <v>0.163085516686718</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>1</v>
@@ -4561,7 +4561,7 @@
       </c>
       <c r="G8" s="20" t="n">
         <f aca="false">((E8*$D$4)/100)/F8</f>
-        <v>6.48582369171073</v>
+        <v>6.68151536018383</v>
       </c>
       <c r="H8" s="21" t="n">
         <v>6.27</v>
@@ -4615,7 +4615,7 @@
       </c>
       <c r="G9" s="20" t="n">
         <f aca="false">((E9*$D$4)/100)/F9</f>
-        <v>3.0745564223684</v>
+        <v>3.1673226005297</v>
       </c>
       <c r="H9" s="21" t="n">
         <v>2.97</v>
@@ -4669,7 +4669,7 @@
       </c>
       <c r="G10" s="20" t="n">
         <f aca="false">((E10*$D$4)/100)/F10</f>
-        <v>10.9583532748722</v>
+        <v>11.288991068622</v>
       </c>
       <c r="H10" s="21" t="n">
         <v>10.6</v>
@@ -4723,7 +4723,7 @@
       </c>
       <c r="G11" s="20" t="n">
         <f aca="false">((E11*$D$4)/100)/F11</f>
-        <v>2.49317032179633</v>
+        <v>2.5683947933902</v>
       </c>
       <c r="H11" s="21" t="n">
         <v>2.41</v>
@@ -4777,7 +4777,7 @@
       </c>
       <c r="G12" s="20" t="n">
         <f aca="false">((E12*$D$4)/100)/F12</f>
-        <v>3.73717634098228</v>
+        <v>3.8499352299542</v>
       </c>
       <c r="H12" s="21" t="n">
         <v>3.62</v>
@@ -4831,7 +4831,7 @@
       </c>
       <c r="G13" s="20" t="n">
         <f aca="false">((E13*$D$4)/100)/F13</f>
-        <v>5.73429174013155</v>
+        <v>5.90730802479745</v>
       </c>
       <c r="H13" s="21" t="n">
         <v>5.55</v>
@@ -4885,7 +4885,7 @@
       </c>
       <c r="G14" s="20" t="n">
         <f aca="false">((E14*$D$4)/100)/F14</f>
-        <v>10.0723154171456</v>
+        <v>10.376219485936</v>
       </c>
       <c r="H14" s="21" t="n">
         <v>7.94</v>
@@ -4939,7 +4939,7 @@
       </c>
       <c r="G15" s="20" t="n">
         <f aca="false">((E15*$D$4)/100)/F15</f>
-        <v>8.4079219463527</v>
+        <v>8.66160757708858</v>
       </c>
       <c r="H15" s="21" t="n">
         <v>8.13</v>
@@ -4993,7 +4993,7 @@
       </c>
       <c r="G16" s="20" t="n">
         <f aca="false">((E16*$D$4)/100)/F16</f>
-        <v>4.77436625059411</v>
+        <v>4.91841945676968</v>
       </c>
       <c r="H16" s="21" t="n">
         <v>4.62</v>
@@ -5047,7 +5047,7 @@
       </c>
       <c r="G17" s="20" t="n">
         <f aca="false">((E17*$D$4)/100)/F17</f>
-        <v>2.00923459192596</v>
+        <v>2.06985765051301</v>
       </c>
       <c r="H17" s="21" t="n">
         <v>1.94</v>
@@ -5094,7 +5094,7 @@
       <c r="E18" s="29"/>
       <c r="F18" s="30" t="n">
         <f aca="false">D4</f>
-        <v>108378.113888486</v>
+        <v>111648.121668672</v>
       </c>
       <c r="G18" s="31"/>
       <c r="H18" s="31"/>
@@ -5102,11 +5102,11 @@
       <c r="J18" s="30"/>
       <c r="K18" s="32" t="n">
         <f aca="false">F4</f>
-        <v>113038.543888486</v>
+        <v>116308.551668672</v>
       </c>
       <c r="L18" s="33" t="n">
         <f aca="false">(K18/F18-1)</f>
-        <v>0.0430015787578224</v>
+        <v>0.0417421263371571</v>
       </c>
       <c r="M18" s="33"/>
       <c r="N18" s="1" t="s">
@@ -6313,7 +6313,7 @@
       <c r="C4" s="2"/>
       <c r="D4" s="9" t="n">
         <f aca="false">Junho!F4</f>
-        <v>113038.543888486</v>
+        <v>116308.551668672</v>
       </c>
       <c r="E4" s="10" t="n">
         <f aca="false">IF(SUM(I8:I17)&lt;=D4,SUM(I8:I17),"VALOR ACIMA DO DISPONÍVEL")</f>
@@ -6321,13 +6321,13 @@
       </c>
       <c r="F4" s="11" t="n">
         <f aca="false">(E4*I2)+E4+(D4-E4)</f>
-        <v>117878.543888486</v>
+        <v>121148.551668672</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="12" t="n">
         <f aca="false">F4/100000-1</f>
-        <v>0.178785438884862</v>
+        <v>0.211485516686718</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>1</v>
@@ -6468,7 +6468,7 @@
       </c>
       <c r="G8" s="20" t="n">
         <f aca="false">((E8*$D$4)/100)/F8</f>
-        <v>6.76472434999918</v>
+        <v>6.96041601847228</v>
       </c>
       <c r="H8" s="21" t="n">
         <v>6</v>
@@ -6522,7 +6522,7 @@
       </c>
       <c r="G9" s="20" t="n">
         <f aca="false">((E9*$D$4)/100)/F9</f>
-        <v>3.20676720251025</v>
+        <v>3.29953338067154</v>
       </c>
       <c r="H9" s="21" t="n">
         <v>3</v>
@@ -6576,7 +6576,7 @@
       </c>
       <c r="G10" s="20" t="n">
         <f aca="false">((E10*$D$4)/100)/F10</f>
-        <v>11.4295797662777</v>
+        <v>11.7602175600275</v>
       </c>
       <c r="H10" s="21" t="n">
         <v>10</v>
@@ -6630,7 +6630,7 @@
       </c>
       <c r="G11" s="20" t="n">
         <f aca="false">((E11*$D$4)/100)/F11</f>
-        <v>2.60038058174571</v>
+        <v>2.67560505333959</v>
       </c>
       <c r="H11" s="21" t="n">
         <v>2</v>
@@ -6684,7 +6684,7 @@
       </c>
       <c r="G12" s="20" t="n">
         <f aca="false">((E12*$D$4)/100)/F12</f>
-        <v>3.8978808237409</v>
+        <v>4.01063971271282</v>
       </c>
       <c r="H12" s="21" t="n">
         <v>3</v>
@@ -6738,7 +6738,7 @@
       </c>
       <c r="G13" s="20" t="n">
         <f aca="false">((E13*$D$4)/100)/F13</f>
-        <v>5.98087533801515</v>
+        <v>6.15389162268105</v>
       </c>
       <c r="H13" s="21" t="n">
         <v>5</v>
@@ -6792,7 +6792,7 @@
       </c>
       <c r="G14" s="20" t="n">
         <f aca="false">((E14*$D$4)/100)/F14</f>
-        <v>10.5054408818296</v>
+        <v>10.8093449506201</v>
       </c>
       <c r="H14" s="21" t="n">
         <v>7</v>
@@ -6846,7 +6846,7 @@
       </c>
       <c r="G15" s="20" t="n">
         <f aca="false">((E15*$D$4)/100)/F15</f>
-        <v>8.7694758641184</v>
+        <v>9.02316149485429</v>
       </c>
       <c r="H15" s="21" t="n">
         <v>5</v>
@@ -6900,7 +6900,7 @@
       </c>
       <c r="G16" s="20" t="n">
         <f aca="false">((E16*$D$4)/100)/F16</f>
-        <v>4.97967153693772</v>
+        <v>5.12372474311329</v>
       </c>
       <c r="H16" s="21" t="n">
         <v>3</v>
@@ -6954,7 +6954,7 @@
       </c>
       <c r="G17" s="20" t="n">
         <f aca="false">((E17*$D$4)/100)/F17</f>
-        <v>2.0956348514736</v>
+        <v>2.15625791006066</v>
       </c>
       <c r="H17" s="21" t="n">
         <v>1</v>
@@ -7001,7 +7001,7 @@
       <c r="E18" s="29"/>
       <c r="F18" s="30" t="n">
         <f aca="false">D4</f>
-        <v>113038.543888486</v>
+        <v>116308.551668672</v>
       </c>
       <c r="G18" s="31"/>
       <c r="H18" s="31"/>
@@ -7009,11 +7009,11 @@
       <c r="J18" s="30"/>
       <c r="K18" s="32" t="n">
         <f aca="false">F4</f>
-        <v>117878.543888486</v>
+        <v>121148.551668672</v>
       </c>
       <c r="L18" s="33" t="n">
         <f aca="false">(K18/F18-1)</f>
-        <v>0.0428172535978058</v>
+        <v>0.0416134491450613</v>
       </c>
       <c r="M18" s="33"/>
       <c r="N18" s="1" t="s">
@@ -8220,7 +8220,7 @@
       <c r="C4" s="2"/>
       <c r="D4" s="9" t="n">
         <f aca="false">Julho!F4</f>
-        <v>117878.543888486</v>
+        <v>121148.551668672</v>
       </c>
       <c r="E4" s="10" t="n">
         <f aca="false">IF(SUM(I8:I17)&lt;=D4,SUM(I8:I17),"VALOR ACIMA DO DISPONÍVEL")</f>
@@ -8228,13 +8228,13 @@
       </c>
       <c r="F4" s="11" t="n">
         <f aca="false">(E4*I2)+E4+(D4-E4)</f>
-        <v>122718.543888486</v>
+        <v>125988.551668672</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="12" t="n">
         <f aca="false">F4/100000-1</f>
-        <v>0.227185438884862</v>
+        <v>0.259885516686718</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>1</v>
@@ -8375,7 +8375,7 @@
       </c>
       <c r="G8" s="20" t="n">
         <f aca="false">((E8*$D$4)/100)/F8</f>
-        <v>7.05437126801234</v>
+        <v>7.25006293648544</v>
       </c>
       <c r="H8" s="21" t="n">
         <v>6</v>
@@ -8429,7 +8429,7 @@
       </c>
       <c r="G9" s="20" t="n">
         <f aca="false">((E9*$D$4)/100)/F9</f>
-        <v>3.34407216704925</v>
+        <v>3.43683834521055</v>
       </c>
       <c r="H9" s="21" t="n">
         <v>3</v>
@@ -8483,7 +8483,7 @@
       </c>
       <c r="G10" s="20" t="n">
         <f aca="false">((E10*$D$4)/100)/F10</f>
-        <v>10.7270666834821</v>
+        <v>11.0246406978569</v>
       </c>
       <c r="H10" s="21" t="n">
         <v>10</v>
@@ -8537,7 +8537,7 @@
       </c>
       <c r="G11" s="20" t="n">
         <f aca="false">((E11*$D$4)/100)/F11</f>
-        <v>2.44054956290862</v>
+        <v>2.5082515873431</v>
       </c>
       <c r="H11" s="21" t="n">
         <v>2</v>
@@ -8591,7 +8591,7 @@
       </c>
       <c r="G12" s="20" t="n">
         <f aca="false">((E12*$D$4)/100)/F12</f>
-        <v>3.25182190037203</v>
+        <v>3.34202901154957</v>
       </c>
       <c r="H12" s="21" t="n">
         <v>3</v>
@@ -8645,7 +8645,7 @@
       </c>
       <c r="G13" s="20" t="n">
         <f aca="false">((E13*$D$4)/100)/F13</f>
-        <v>5.61326399468982</v>
+        <v>5.76897865088913</v>
       </c>
       <c r="H13" s="21" t="n">
         <v>5</v>
@@ -8699,7 +8699,7 @@
       </c>
       <c r="G14" s="20" t="n">
         <f aca="false">((E14*$D$4)/100)/F14</f>
-        <v>7.66867850575654</v>
+        <v>7.88141135390987</v>
       </c>
       <c r="H14" s="21" t="n">
         <v>7</v>
@@ -8753,7 +8753,7 @@
       </c>
       <c r="G15" s="20" t="n">
         <f aca="false">((E15*$D$4)/100)/F15</f>
-        <v>6.40147251527854</v>
+        <v>6.57905245679366</v>
       </c>
       <c r="H15" s="21" t="n">
         <v>5</v>
@@ -8807,7 +8807,7 @@
       </c>
       <c r="G16" s="20" t="n">
         <f aca="false">((E16*$D$4)/100)/F16</f>
-        <v>3.63502117717799</v>
+        <v>3.73585842150089</v>
       </c>
       <c r="H16" s="21" t="n">
         <v>3</v>
@@ -8861,7 +8861,7 @@
       </c>
       <c r="G17" s="20" t="n">
         <f aca="false">((E17*$D$4)/100)/F17</f>
-        <v>1.74829134428604</v>
+        <v>1.79678979115568</v>
       </c>
       <c r="H17" s="21" t="n">
         <v>1</v>
@@ -8908,7 +8908,7 @@
       <c r="E18" s="29"/>
       <c r="F18" s="30" t="n">
         <f aca="false">D4</f>
-        <v>117878.543888486</v>
+        <v>121148.551668672</v>
       </c>
       <c r="G18" s="31"/>
       <c r="H18" s="31"/>
@@ -8916,11 +8916,11 @@
       <c r="J18" s="30"/>
       <c r="K18" s="32" t="n">
         <f aca="false">F4</f>
-        <v>122718.543888486</v>
+        <v>125988.551668672</v>
       </c>
       <c r="L18" s="33" t="n">
         <f aca="false">(K18/F18-1)</f>
-        <v>0.0410592109500323</v>
+        <v>0.0399509522262955</v>
       </c>
       <c r="M18" s="33"/>
       <c r="N18" s="1" t="s">
@@ -10127,7 +10127,7 @@
       <c r="C4" s="2"/>
       <c r="D4" s="9" t="n">
         <f aca="false">Agosto!F4</f>
-        <v>122718.543888486</v>
+        <v>125988.551668672</v>
       </c>
       <c r="E4" s="10" t="n">
         <f aca="false">IF(SUM(I8:I17)&lt;=D4,SUM(I8:I17),"VALOR ACIMA DO DISPONÍVEL")</f>
@@ -10135,13 +10135,13 @@
       </c>
       <c r="F4" s="11" t="n">
         <f aca="false">(E4*I2)+E4+(D4-E4)</f>
-        <v>127558.543888486</v>
+        <v>130828.551668672</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="12" t="n">
         <f aca="false">F4/100000-1</f>
-        <v>0.275585438884862</v>
+        <v>0.308285516686718</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>1</v>
@@ -10282,7 +10282,7 @@
       </c>
       <c r="G8" s="20" t="n">
         <f aca="false">((E8*$D$4)/100)/F8</f>
-        <v>7.34401818602551</v>
+        <v>7.53970985449861</v>
       </c>
       <c r="H8" s="21" t="n">
         <v>6</v>
@@ -10336,7 +10336,7 @@
       </c>
       <c r="G9" s="20" t="n">
         <f aca="false">((E9*$D$4)/100)/F9</f>
-        <v>3.48137713158826</v>
+        <v>3.57414330974955</v>
       </c>
       <c r="H9" s="21" t="n">
         <v>3</v>
@@ -10390,7 +10390,7 @@
       </c>
       <c r="G10" s="20" t="n">
         <f aca="false">((E10*$D$4)/100)/F10</f>
-        <v>11.1675115773142</v>
+        <v>11.465085591689</v>
       </c>
       <c r="H10" s="21" t="n">
         <v>10</v>
@@ -10444,7 +10444,7 @@
       </c>
       <c r="G11" s="20" t="n">
         <f aca="false">((E11*$D$4)/100)/F11</f>
-        <v>2.54075660224609</v>
+        <v>2.60845862668058</v>
       </c>
       <c r="H11" s="21" t="n">
         <v>2</v>
@@ -10498,7 +10498,7 @@
       </c>
       <c r="G12" s="20" t="n">
         <f aca="false">((E12*$D$4)/100)/F12</f>
-        <v>3.38533914175134</v>
+        <v>3.47554625292888</v>
       </c>
       <c r="H12" s="21" t="n">
         <v>3</v>
@@ -10552,7 +10552,7 @@
       </c>
       <c r="G13" s="20" t="n">
         <f aca="false">((E13*$D$4)/100)/F13</f>
-        <v>5.84374018516601</v>
+        <v>5.99945484136532</v>
       </c>
       <c r="H13" s="21" t="n">
         <v>5</v>
@@ -10606,7 +10606,7 @@
       </c>
       <c r="G14" s="20" t="n">
         <f aca="false">((E14*$D$4)/100)/F14</f>
-        <v>7.98354839423238</v>
+        <v>8.19628124238571</v>
       </c>
       <c r="H14" s="21" t="n">
         <v>7</v>
@@ -10660,7 +10660,7 @@
       </c>
       <c r="G15" s="20" t="n">
         <f aca="false">((E15*$D$4)/100)/F15</f>
-        <v>6.66431192567419</v>
+        <v>6.84189186718931</v>
       </c>
       <c r="H15" s="21" t="n">
         <v>5</v>
@@ -10714,7 +10714,7 @@
       </c>
       <c r="G16" s="20" t="n">
         <f aca="false">((E16*$D$4)/100)/F16</f>
-        <v>3.78427227849958</v>
+        <v>3.88510952282248</v>
       </c>
       <c r="H16" s="21" t="n">
         <v>3</v>
@@ -10768,7 +10768,7 @@
       </c>
       <c r="G17" s="20" t="n">
         <f aca="false">((E17*$D$4)/100)/F17</f>
-        <v>1.8200748073932</v>
+        <v>1.86857325426284</v>
       </c>
       <c r="H17" s="21" t="n">
         <v>1</v>
@@ -10815,7 +10815,7 @@
       <c r="E18" s="29"/>
       <c r="F18" s="30" t="n">
         <f aca="false">D4</f>
-        <v>122718.543888486</v>
+        <v>125988.551668672</v>
       </c>
       <c r="G18" s="31"/>
       <c r="H18" s="31"/>
@@ -10823,11 +10823,11 @@
       <c r="J18" s="30"/>
       <c r="K18" s="32" t="n">
         <f aca="false">F4</f>
-        <v>127558.543888486</v>
+        <v>130828.551668672</v>
       </c>
       <c r="L18" s="33" t="n">
         <f aca="false">(K18/F18-1)</f>
-        <v>0.0394398421513058</v>
+        <v>0.0384161888988801</v>
       </c>
       <c r="M18" s="33"/>
       <c r="N18" s="1" t="s">
@@ -12034,7 +12034,7 @@
       <c r="C4" s="2"/>
       <c r="D4" s="9" t="n">
         <f aca="false">Setembro!F4</f>
-        <v>127558.543888486</v>
+        <v>130828.551668672</v>
       </c>
       <c r="E4" s="10" t="n">
         <f aca="false">IF(SUM(I8:I17)&lt;=D4,SUM(I8:I17),"VALOR ACIMA DO DISPONÍVEL")</f>
@@ -12042,13 +12042,13 @@
       </c>
       <c r="F4" s="11" t="n">
         <f aca="false">(E4*I2)+E4+(D4-E4)</f>
-        <v>132398.543888486</v>
+        <v>135668.551668672</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="12" t="n">
         <f aca="false">F4/100000-1</f>
-        <v>0.323985438884862</v>
+        <v>0.356685516686718</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>1</v>
@@ -12189,7 +12189,7 @@
       </c>
       <c r="G8" s="20" t="n">
         <f aca="false">((E8*$D$4)/100)/F8</f>
-        <v>7.63366510403867</v>
+        <v>7.82935677251178</v>
       </c>
       <c r="H8" s="21" t="n">
         <v>6</v>
@@ -12243,7 +12243,7 @@
       </c>
       <c r="G9" s="20" t="n">
         <f aca="false">((E9*$D$4)/100)/F9</f>
-        <v>3.61868209612727</v>
+        <v>3.71144827428856</v>
       </c>
       <c r="H9" s="21" t="n">
         <v>3</v>
@@ -12297,7 +12297,7 @@
       </c>
       <c r="G10" s="20" t="n">
         <f aca="false">((E10*$D$4)/100)/F10</f>
-        <v>11.6079564711464</v>
+        <v>11.9055304855212</v>
       </c>
       <c r="H10" s="21" t="n">
         <v>10</v>
@@ -12351,7 +12351,7 @@
       </c>
       <c r="G11" s="20" t="n">
         <f aca="false">((E11*$D$4)/100)/F11</f>
-        <v>2.64096364158357</v>
+        <v>2.70866566601805</v>
       </c>
       <c r="H11" s="21" t="n">
         <v>2</v>
@@ -12405,7 +12405,7 @@
       </c>
       <c r="G12" s="20" t="n">
         <f aca="false">((E12*$D$4)/100)/F12</f>
-        <v>3.51885638313066</v>
+        <v>3.60906349430819</v>
       </c>
       <c r="H12" s="21" t="n">
         <v>3</v>
@@ -12459,7 +12459,7 @@
       </c>
       <c r="G13" s="20" t="n">
         <f aca="false">((E13*$D$4)/100)/F13</f>
-        <v>6.0742163756422</v>
+        <v>6.22993103184151</v>
       </c>
       <c r="H13" s="21" t="n">
         <v>5</v>
@@ -12513,7 +12513,7 @@
       </c>
       <c r="G14" s="20" t="n">
         <f aca="false">((E14*$D$4)/100)/F14</f>
-        <v>8.29841828270821</v>
+        <v>8.51115113086155</v>
       </c>
       <c r="H14" s="21" t="n">
         <v>7</v>
@@ -12567,7 +12567,7 @@
       </c>
       <c r="G15" s="20" t="n">
         <f aca="false">((E15*$D$4)/100)/F15</f>
-        <v>6.92715133606985</v>
+        <v>7.10473127758497</v>
       </c>
       <c r="H15" s="21" t="n">
         <v>5</v>
@@ -12621,7 +12621,7 @@
       </c>
       <c r="G16" s="20" t="n">
         <f aca="false">((E16*$D$4)/100)/F16</f>
-        <v>3.93352337982116</v>
+        <v>4.03436062414406</v>
       </c>
       <c r="H16" s="21" t="n">
         <v>3</v>
@@ -12675,7 +12675,7 @@
       </c>
       <c r="G17" s="20" t="n">
         <f aca="false">((E17*$D$4)/100)/F17</f>
-        <v>1.89185827050035</v>
+        <v>1.94035671736999</v>
       </c>
       <c r="H17" s="21" t="n">
         <v>1</v>
@@ -12722,7 +12722,7 @@
       <c r="E18" s="29"/>
       <c r="F18" s="30" t="n">
         <f aca="false">D4</f>
-        <v>127558.543888486</v>
+        <v>130828.551668672</v>
       </c>
       <c r="G18" s="31"/>
       <c r="H18" s="31"/>
@@ -12730,11 +12730,11 @@
       <c r="J18" s="30"/>
       <c r="K18" s="32" t="n">
         <f aca="false">F4</f>
-        <v>132398.543888486</v>
+        <v>135668.551668672</v>
       </c>
       <c r="L18" s="33" t="n">
         <f aca="false">(K18/F18-1)</f>
-        <v>0.0379433619454859</v>
+        <v>0.0369949826568245</v>
       </c>
       <c r="M18" s="33"/>
       <c r="N18" s="1" t="s">
@@ -13941,7 +13941,7 @@
       <c r="C4" s="2"/>
       <c r="D4" s="9" t="n">
         <f aca="false">Outubro!F4</f>
-        <v>132398.543888486</v>
+        <v>135668.551668672</v>
       </c>
       <c r="E4" s="10" t="n">
         <f aca="false">IF(SUM(I8:I17)&lt;=D4,SUM(I8:I17),"VALOR ACIMA DO DISPONÍVEL")</f>
@@ -13949,13 +13949,13 @@
       </c>
       <c r="F4" s="11" t="n">
         <f aca="false">(E4*I2)+E4+(D4-E4)</f>
-        <v>137238.543888486</v>
+        <v>140508.551668672</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="12" t="n">
         <f aca="false">F4/100000-1</f>
-        <v>0.372385438884862</v>
+        <v>0.405085516686718</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>1</v>
@@ -14096,7 +14096,7 @@
       </c>
       <c r="G8" s="20" t="n">
         <f aca="false">((E8*$D$4)/100)/F8</f>
-        <v>7.92331202205184</v>
+        <v>8.11900369052494</v>
       </c>
       <c r="H8" s="21" t="n">
         <v>6</v>
@@ -14150,7 +14150,7 @@
       </c>
       <c r="G9" s="20" t="n">
         <f aca="false">((E9*$D$4)/100)/F9</f>
-        <v>3.75598706066628</v>
+        <v>3.84875323882757</v>
       </c>
       <c r="H9" s="21" t="n">
         <v>3</v>
@@ -14204,7 +14204,7 @@
       </c>
       <c r="G10" s="20" t="n">
         <f aca="false">((E10*$D$4)/100)/F10</f>
-        <v>13.3871126277539</v>
+        <v>13.7177504215037</v>
       </c>
       <c r="H10" s="21" t="n">
         <v>10</v>
@@ -14258,7 +14258,7 @@
       </c>
       <c r="G11" s="20" t="n">
         <f aca="false">((E11*$D$4)/100)/F11</f>
-        <v>3.04574520102338</v>
+        <v>3.12096967261725</v>
       </c>
       <c r="H11" s="21" t="n">
         <v>2</v>
@@ -14312,7 +14312,7 @@
       </c>
       <c r="G12" s="20" t="n">
         <f aca="false">((E12*$D$4)/100)/F12</f>
-        <v>4.56546703063746</v>
+        <v>4.67822591960937</v>
       </c>
       <c r="H12" s="21" t="n">
         <v>3</v>
@@ -14366,7 +14366,7 @@
       </c>
       <c r="G13" s="20" t="n">
         <f aca="false">((E13*$D$4)/100)/F13</f>
-        <v>7.00521396235377</v>
+        <v>7.17823024701967</v>
       </c>
       <c r="H13" s="21" t="n">
         <v>5</v>
@@ -14420,7 +14420,7 @@
       </c>
       <c r="G14" s="20" t="n">
         <f aca="false">((E14*$D$4)/100)/F14</f>
-        <v>12.3046973874058</v>
+        <v>12.6086014561963</v>
       </c>
       <c r="H14" s="21" t="n">
         <v>7</v>
@@ -14474,7 +14474,7 @@
       </c>
       <c r="G15" s="20" t="n">
         <f aca="false">((E15*$D$4)/100)/F15</f>
-        <v>10.2714153520936</v>
+        <v>10.5251009828295</v>
       </c>
       <c r="H15" s="21" t="n">
         <v>5</v>
@@ -14528,7 +14528,7 @@
       </c>
       <c r="G16" s="20" t="n">
         <f aca="false">((E16*$D$4)/100)/F16</f>
-        <v>5.83253497306107</v>
+        <v>5.97658817923664</v>
       </c>
       <c r="H16" s="21" t="n">
         <v>3</v>
@@ -14582,7 +14582,7 @@
       </c>
       <c r="G17" s="20" t="n">
         <f aca="false">((E17*$D$4)/100)/F17</f>
-        <v>2.45455216700939</v>
+        <v>2.51517522559644</v>
       </c>
       <c r="H17" s="21" t="n">
         <v>1</v>
@@ -14629,7 +14629,7 @@
       <c r="E18" s="29"/>
       <c r="F18" s="30" t="n">
         <f aca="false">D4</f>
-        <v>132398.543888486</v>
+        <v>135668.551668672</v>
       </c>
       <c r="G18" s="31"/>
       <c r="H18" s="31"/>
@@ -14637,11 +14637,11 @@
       <c r="J18" s="30"/>
       <c r="K18" s="32" t="n">
         <f aca="false">F4</f>
-        <v>137238.543888486</v>
+        <v>140508.551668672</v>
       </c>
       <c r="L18" s="33" t="n">
         <f aca="false">(K18/F18-1)</f>
-        <v>0.0365562932782444</v>
+        <v>0.0356751799917507</v>
       </c>
       <c r="M18" s="33"/>
       <c r="N18" s="1" t="s">
@@ -15848,7 +15848,7 @@
       <c r="C4" s="2"/>
       <c r="D4" s="9" t="n">
         <f aca="false">Novembro!F4</f>
-        <v>137238.543888486</v>
+        <v>140508.551668672</v>
       </c>
       <c r="E4" s="10" t="n">
         <f aca="false">IF(SUM(I8:I17)&lt;=D4,SUM(I8:I17),"VALOR ACIMA DO DISPONÍVEL")</f>
@@ -15856,13 +15856,13 @@
       </c>
       <c r="F4" s="11" t="n">
         <f aca="false">(E4*I2)+E4+(D4-E4)</f>
-        <v>142414.543888486</v>
+        <v>145684.551668672</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="12" t="n">
         <f aca="false">F4/100000-1</f>
-        <v>0.424145438884862</v>
+        <v>0.456845516686718</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>1</v>
@@ -16003,7 +16003,7 @@
       </c>
       <c r="G8" s="20" t="n">
         <f aca="false">((E8*$D$4)/100)/F8</f>
-        <v>8.21295894006501</v>
+        <v>8.40865060853811</v>
       </c>
       <c r="H8" s="21" t="n">
         <v>6</v>
@@ -16057,7 +16057,7 @@
       </c>
       <c r="G9" s="20" t="n">
         <f aca="false">((E9*$D$4)/100)/F9</f>
-        <v>3.89329202520528</v>
+        <v>3.98605820336658</v>
       </c>
       <c r="H9" s="21" t="n">
         <v>3</v>
@@ -16111,7 +16111,7 @@
       </c>
       <c r="G10" s="20" t="n">
         <f aca="false">((E10*$D$4)/100)/F10</f>
-        <v>13.876495843123</v>
+        <v>14.2071336368728</v>
       </c>
       <c r="H10" s="21" t="n">
         <v>13</v>
@@ -16165,7 +16165,7 @@
       </c>
       <c r="G11" s="20" t="n">
         <f aca="false">((E11*$D$4)/100)/F11</f>
-        <v>3.15708635584279</v>
+        <v>3.23231082743666</v>
       </c>
       <c r="H11" s="21" t="n">
         <v>3</v>
@@ -16219,7 +16219,7 @@
       </c>
       <c r="G12" s="20" t="n">
         <f aca="false">((E12*$D$4)/100)/F12</f>
-        <v>4.7323635823616</v>
+        <v>4.84512247133351</v>
       </c>
       <c r="H12" s="21" t="n">
         <v>4</v>
@@ -16273,7 +16273,7 @@
       </c>
       <c r="G13" s="20" t="n">
         <f aca="false">((E13*$D$4)/100)/F13</f>
-        <v>7.26129861843843</v>
+        <v>7.43431490310433</v>
       </c>
       <c r="H13" s="21" t="n">
         <v>7</v>
@@ -16327,7 +16327,7 @@
       </c>
       <c r="G14" s="20" t="n">
         <f aca="false">((E14*$D$4)/100)/F14</f>
-        <v>12.7545115137998</v>
+        <v>13.0584155825903</v>
       </c>
       <c r="H14" s="21" t="n">
         <v>12</v>
@@ -16381,7 +16381,7 @@
       </c>
       <c r="G15" s="20" t="n">
         <f aca="false">((E15*$D$4)/100)/F15</f>
-        <v>10.6469002240874</v>
+        <v>10.9005858548233</v>
       </c>
       <c r="H15" s="21" t="n">
         <v>10</v>
@@ -16435,7 +16435,7 @@
       </c>
       <c r="G16" s="20" t="n">
         <f aca="false">((E16*$D$4)/100)/F16</f>
-        <v>6.04575083209191</v>
+        <v>6.18980403826748</v>
       </c>
       <c r="H16" s="21" t="n">
         <v>5</v>
@@ -16489,7 +16489,7 @@
       </c>
       <c r="G17" s="20" t="n">
         <f aca="false">((E17*$D$4)/100)/F17</f>
-        <v>2.54428149589333</v>
+        <v>2.60490455448038</v>
       </c>
       <c r="H17" s="21" t="n">
         <v>3</v>
@@ -16536,7 +16536,7 @@
       <c r="E18" s="29"/>
       <c r="F18" s="30" t="n">
         <f aca="false">D4</f>
-        <v>137238.543888486</v>
+        <v>140508.551668672</v>
       </c>
       <c r="G18" s="31"/>
       <c r="H18" s="31"/>
@@ -16544,11 +16544,11 @@
       <c r="J18" s="30"/>
       <c r="K18" s="32" t="n">
         <f aca="false">F4</f>
-        <v>142414.543888486</v>
+        <v>145684.551668672</v>
       </c>
       <c r="L18" s="33" t="n">
         <f aca="false">(K18/F18-1)</f>
-        <v>0.037715352067607</v>
+        <v>0.0368376154940757</v>
       </c>
       <c r="M18" s="33"/>
       <c r="N18" s="1"/>
